--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile:sas-practitioner-aggregator</t>
+  </si>
+  <si>
+    <t>sas-practitioner-aggregator</t>
   </si>
   <si>
     <t>Practitioner.meta.security</t>
@@ -2021,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN125"/>
+  <dimension ref="A1:AN126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2032,7 +2038,7 @@
   <cols>
     <col min="1" max="1" width="65.296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="26.28515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3334,9 +3340,11 @@
         <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -3357,16 +3365,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3377,7 +3385,7 @@
         <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>76</v>
@@ -3392,13 +3400,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3416,7 +3424,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3445,10 +3453,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3471,16 +3479,16 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3506,13 +3514,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3530,7 +3538,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3559,10 +3567,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3573,28 +3581,28 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3620,13 +3628,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3644,13 +3652,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -3673,10 +3681,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3693,22 +3701,22 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3734,13 +3742,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3758,7 +3766,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3787,14 +3795,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3813,16 +3821,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3848,13 +3856,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3872,7 +3880,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3890,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3901,21 +3909,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3927,16 +3935,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3986,25 +3994,25 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -4015,14 +4023,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4041,15 +4049,17 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -4086,17 +4096,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4108,13 +4120,13 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -4125,14 +4137,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -4141,7 +4151,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -4153,13 +4163,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4198,19 +4208,17 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4219,7 +4227,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>116</v>
@@ -4239,46 +4247,44 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4335,7 +4341,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -4344,7 +4350,7 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4355,18 +4361,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4375,23 +4381,25 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4428,19 +4436,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4452,27 +4460,27 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4480,10 +4488,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4492,19 +4500,21 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4540,62 +4550,62 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4607,17 +4617,15 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4654,31 +4662,31 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
@@ -4695,46 +4703,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4758,49 +4764,49 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4811,10 +4817,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4831,25 +4837,25 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4859,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -4874,11 +4880,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4896,7 +4904,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4911,10 +4919,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4925,10 +4933,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4948,19 +4956,23 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4969,7 +4981,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4984,13 +4996,11 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -5008,7 +5018,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5020,13 +5030,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -5037,21 +5047,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -5063,17 +5073,15 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -5110,31 +5118,31 @@
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -5151,21 +5159,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5174,23 +5182,21 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5226,19 +5232,19 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5250,13 +5256,13 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5267,10 +5273,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5290,19 +5296,23 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5350,25 +5360,25 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5379,21 +5389,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5405,17 +5415,15 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5452,31 +5460,31 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5493,21 +5501,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5516,23 +5524,21 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5544,7 +5550,7 @@
         <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>76</v>
@@ -5568,37 +5574,37 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5609,10 +5615,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5635,18 +5641,20 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5658,7 +5666,7 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>76</v>
@@ -5694,7 +5702,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5709,10 +5717,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5723,10 +5731,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5749,18 +5757,18 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5823,10 +5831,10 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5837,10 +5845,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5863,17 +5871,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5922,7 +5930,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5937,10 +5945,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5951,10 +5959,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5977,19 +5985,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6038,7 +6044,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6053,10 +6059,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -6067,10 +6073,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6093,19 +6099,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6154,7 +6160,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6169,10 +6175,10 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6183,10 +6189,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6194,7 +6200,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -6209,19 +6215,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -6231,10 +6237,10 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>76</v>
@@ -6270,7 +6276,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6285,13 +6291,13 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6299,10 +6305,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6325,18 +6331,20 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6345,10 +6353,10 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>76</v>
@@ -6384,7 +6392,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6399,13 +6407,13 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6413,10 +6421,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6424,7 +6432,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
@@ -6439,15 +6447,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6460,7 +6470,7 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>76</v>
@@ -6496,7 +6506,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6511,13 +6521,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6525,10 +6535,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6551,17 +6561,15 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6610,7 +6618,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6625,13 +6633,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6639,14 +6647,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6667,18 +6673,18 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6726,13 +6732,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6741,26 +6747,28 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="B42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6778,19 +6786,21 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6838,50 +6848,50 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6893,17 +6903,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6940,31 +6948,31 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6981,46 +6989,44 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -7044,49 +7050,49 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7097,10 +7103,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7117,25 +7123,25 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7145,7 +7151,7 @@
         <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>76</v>
@@ -7160,13 +7166,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -7184,7 +7190,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7199,10 +7205,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7213,10 +7219,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7239,19 +7245,19 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7261,10 +7267,10 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>76</v>
@@ -7276,13 +7282,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7306,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7315,13 +7321,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7332,7 +7338,7 @@
         <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7355,18 +7361,20 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7375,10 +7383,10 @@
         <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>76</v>
@@ -7414,7 +7422,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7429,13 +7437,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7446,7 +7454,7 @@
         <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7469,15 +7477,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7490,7 +7500,7 @@
         <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>76</v>
@@ -7526,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7541,13 +7551,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7555,10 +7565,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7581,17 +7591,15 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7640,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7655,13 +7663,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7669,14 +7677,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7685,7 +7691,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7697,18 +7703,18 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7756,13 +7762,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7771,26 +7777,28 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7799,7 +7807,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7808,19 +7816,21 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>102</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7868,50 +7878,50 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7923,17 +7933,15 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7970,31 +7978,31 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -8011,46 +8019,44 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8074,49 +8080,49 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -8127,10 +8133,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8147,25 +8153,25 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8175,7 +8181,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8190,13 +8196,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8214,7 +8220,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8229,10 +8235,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8246,7 +8252,7 @@
         <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8269,19 +8275,19 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8294,7 +8300,7 @@
         <v>360</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>76</v>
@@ -8306,13 +8312,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -8330,7 +8336,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8345,13 +8351,13 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8362,7 +8368,7 @@
         <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8385,18 +8391,20 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8405,10 +8413,10 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>76</v>
@@ -8444,7 +8452,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8459,13 +8467,13 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8473,10 +8481,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8499,15 +8507,17 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8520,7 +8530,7 @@
         <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>76</v>
@@ -8556,7 +8566,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8571,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8585,10 +8595,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8611,17 +8621,15 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8670,7 +8678,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8685,13 +8693,13 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8699,14 +8707,12 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8715,7 +8721,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8727,18 +8733,18 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8786,13 +8792,13 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
@@ -8801,26 +8807,28 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8829,7 +8837,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8838,19 +8846,21 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>102</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8898,50 +8908,50 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8953,17 +8963,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -9000,31 +9008,31 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -9041,46 +9049,44 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -9104,49 +9110,49 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9157,10 +9163,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9177,25 +9183,25 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9205,7 +9211,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9220,13 +9226,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9244,7 +9250,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9259,10 +9265,10 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9276,7 +9282,7 @@
         <v>372</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9299,19 +9305,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9324,7 +9330,7 @@
         <v>373</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>76</v>
@@ -9336,13 +9342,13 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9360,7 +9366,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9375,13 +9381,13 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9392,7 +9398,7 @@
         <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9415,18 +9421,20 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9435,10 +9443,10 @@
         <v>76</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>76</v>
@@ -9474,7 +9482,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9489,13 +9497,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9503,10 +9511,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9529,15 +9537,17 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9550,7 +9560,7 @@
         <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>76</v>
@@ -9586,7 +9596,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9601,13 +9611,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9615,10 +9625,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9641,17 +9651,15 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9700,7 +9708,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9715,13 +9723,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -9729,10 +9737,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9755,26 +9763,22 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9833,24 +9837,24 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9861,7 +9865,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9870,27 +9874,29 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="R69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9934,39 +9940,39 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9989,19 +9995,19 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10050,7 +10056,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10059,19 +10065,19 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>400</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -10079,10 +10085,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10105,19 +10111,19 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10166,7 +10172,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10175,19 +10181,19 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10195,10 +10201,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10209,7 +10215,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -10218,20 +10224,22 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10256,13 +10264,13 @@
         <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>76</v>
@@ -10280,28 +10288,28 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10309,10 +10317,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10335,17 +10343,17 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10370,13 +10378,13 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
@@ -10394,7 +10402,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10409,13 +10417,13 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10423,10 +10431,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10437,7 +10445,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -10446,20 +10454,20 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10508,13 +10516,13 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
@@ -10523,13 +10531,13 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10537,10 +10545,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10563,16 +10571,18 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10608,17 +10618,19 @@
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10633,13 +10645,13 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10647,10 +10659,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10661,7 +10673,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10673,13 +10685,13 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10718,40 +10730,38 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -10759,21 +10769,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10785,17 +10795,15 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10844,19 +10852,19 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10873,14 +10881,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10893,26 +10901,24 @@
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10960,7 +10966,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10978,7 +10984,7 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10989,14 +10995,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11009,23 +11015,25 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O79" t="s" s="2">
-        <v>455</v>
+        <v>206</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -11074,7 +11082,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11086,13 +11094,13 @@
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>456</v>
+        <v>192</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11103,10 +11111,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11114,10 +11122,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -11129,16 +11137,18 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
       </c>
@@ -11162,13 +11172,13 @@
         <v>76</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>76</v>
@@ -11186,13 +11196,13 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
@@ -11204,10 +11214,10 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11215,10 +11225,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11226,7 +11236,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>87</v>
@@ -11241,18 +11251,16 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11276,13 +11284,13 @@
         <v>76</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>76</v>
@@ -11300,10 +11308,10 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>87</v>
@@ -11318,10 +11326,10 @@
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>76</v>
@@ -11329,10 +11337,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11355,16 +11363,18 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11412,7 +11422,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11430,10 +11440,10 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>76</v>
@@ -11441,14 +11451,12 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11457,7 +11465,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -11469,13 +11477,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11526,13 +11534,13 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>76</v>
@@ -11541,13 +11549,13 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11555,12 +11563,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="B84" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11569,7 +11579,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -11581,13 +11591,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>102</v>
+        <v>477</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11638,28 +11648,28 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -11667,21 +11677,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11693,17 +11703,15 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -11752,19 +11760,19 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -11781,14 +11789,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11801,26 +11809,24 @@
         <v>76</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O86" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>76</v>
       </c>
@@ -11868,7 +11874,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -11886,7 +11892,7 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -11897,14 +11903,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11917,23 +11923,25 @@
         <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O87" t="s" s="2">
-        <v>455</v>
+        <v>206</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -11982,7 +11990,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -11994,13 +12002,13 @@
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>456</v>
+        <v>192</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -12011,10 +12019,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12022,10 +12030,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -12037,16 +12045,18 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
       </c>
@@ -12070,13 +12080,13 @@
         <v>76</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>76</v>
@@ -12094,13 +12104,13 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>76</v>
@@ -12112,10 +12122,10 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>76</v>
@@ -12123,10 +12133,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12134,7 +12144,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>87</v>
@@ -12149,13 +12159,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>102</v>
+        <v>460</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12182,13 +12192,13 @@
         <v>76</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>76</v>
@@ -12206,10 +12216,10 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>87</v>
@@ -12218,16 +12228,16 @@
         <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12242,14 +12252,14 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>76</v>
@@ -12261,17 +12271,15 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12308,31 +12316,31 @@
         <v>76</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
@@ -12356,7 +12364,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12372,23 +12380,21 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>76</v>
       </c>
@@ -12424,17 +12430,19 @@
         <v>76</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>487</v>
+        <v>114</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12446,13 +12454,13 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -12463,14 +12471,12 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="B92" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12479,7 +12485,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -12491,19 +12497,19 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
@@ -12528,29 +12534,29 @@
         <v>76</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y92" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z92" t="s" s="2">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12565,10 +12571,10 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12579,13 +12585,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>76</v>
@@ -12607,19 +12613,19 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>76</v>
@@ -12644,7 +12650,7 @@
         <v>76</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
@@ -12666,7 +12672,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12681,10 +12687,10 @@
         <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12698,9 +12704,11 @@
         <v>493</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12721,19 +12729,19 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -12758,13 +12766,11 @@
         <v>76</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>76</v>
+        <v>494</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>76</v>
@@ -12782,13 +12788,13 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>76</v>
@@ -12797,10 +12803,10 @@
         <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12814,7 +12820,7 @@
         <v>495</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12834,20 +12840,22 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>464</v>
+        <v>293</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>466</v>
+        <v>296</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -12896,7 +12904,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>463</v>
+        <v>297</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -12911,13 +12919,13 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>467</v>
+        <v>299</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>76</v>
@@ -12925,10 +12933,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12951,16 +12959,18 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
       </c>
@@ -13008,7 +13018,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13026,10 +13036,10 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>76</v>
@@ -13037,14 +13047,12 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13065,13 +13073,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13122,13 +13130,13 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>76</v>
@@ -13137,13 +13145,13 @@
         <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13151,12 +13159,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="B98" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13177,13 +13187,13 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13234,28 +13244,28 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>76</v>
@@ -13263,21 +13273,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -13289,17 +13299,15 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>76</v>
@@ -13348,19 +13356,19 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -13377,14 +13385,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13397,26 +13405,24 @@
         <v>76</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O100" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>76</v>
       </c>
@@ -13464,7 +13470,7 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -13482,7 +13488,7 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -13493,14 +13499,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13513,23 +13519,25 @@
         <v>76</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O101" t="s" s="2">
-        <v>455</v>
+        <v>206</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>76</v>
@@ -13578,7 +13586,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -13590,13 +13598,13 @@
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>456</v>
+        <v>192</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13607,10 +13615,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13618,10 +13626,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -13633,16 +13641,18 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
       </c>
@@ -13666,13 +13676,13 @@
         <v>76</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>76</v>
@@ -13690,13 +13700,13 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>76</v>
@@ -13708,10 +13718,10 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>76</v>
@@ -13719,10 +13729,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13730,7 +13740,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>87</v>
@@ -13745,13 +13755,13 @@
         <v>76</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>102</v>
+        <v>460</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13778,13 +13788,13 @@
         <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>76</v>
@@ -13802,10 +13812,10 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>87</v>
@@ -13814,16 +13824,16 @@
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>76</v>
@@ -13831,21 +13841,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>484</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
@@ -13857,17 +13867,15 @@
         <v>76</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>76</v>
@@ -13904,31 +13912,31 @@
         <v>76</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
@@ -13945,14 +13953,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>486</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13968,23 +13976,21 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14020,17 +14026,19 @@
         <v>76</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC105" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>487</v>
+        <v>114</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14042,13 +14050,13 @@
         <v>76</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -14059,14 +14067,12 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14075,7 +14081,7 @@
         <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>76</v>
@@ -14087,19 +14093,19 @@
         <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>510</v>
+        <v>244</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>76</v>
@@ -14124,29 +14130,29 @@
         <v>76</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y106" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z106" t="s" s="2">
-        <v>511</v>
+        <v>76</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14161,10 +14167,10 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14175,13 +14181,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>76</v>
@@ -14203,19 +14209,19 @@
         <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -14240,11 +14246,11 @@
         <v>76</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>76</v>
@@ -14262,7 +14268,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14277,10 +14283,10 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14291,12 +14297,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="D108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14317,19 +14325,19 @@
         <v>88</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>291</v>
+        <v>516</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14354,13 +14362,11 @@
         <v>76</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>76</v>
+        <v>517</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>76</v>
@@ -14378,13 +14384,13 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>76</v>
@@ -14393,10 +14399,10 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14407,10 +14413,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14430,20 +14436,22 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>464</v>
+        <v>293</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O109" t="s" s="2">
-        <v>466</v>
+        <v>296</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>76</v>
@@ -14492,7 +14500,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>463</v>
+        <v>297</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14507,13 +14515,13 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>467</v>
+        <v>299</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>76</v>
@@ -14521,10 +14529,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14547,16 +14555,18 @@
         <v>76</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14604,7 +14614,7 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -14622,10 +14632,10 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>76</v>
@@ -14633,14 +14643,12 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
         <v>76</v>
       </c>
@@ -14649,7 +14657,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
@@ -14661,13 +14669,13 @@
         <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14718,13 +14726,13 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>76</v>
@@ -14733,13 +14741,13 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>76</v>
@@ -14747,12 +14755,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="B112" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
         <v>76</v>
       </c>
@@ -14761,7 +14771,7 @@
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -14773,13 +14783,13 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>102</v>
+        <v>523</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>103</v>
+        <v>442</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14830,28 +14840,28 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>76</v>
@@ -14859,21 +14869,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>76</v>
@@ -14885,17 +14895,15 @@
         <v>76</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>76</v>
@@ -14944,19 +14952,19 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>
@@ -14973,14 +14981,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14993,26 +15001,24 @@
         <v>76</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="O114" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15060,7 +15066,7 @@
         <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>451</v>
+        <v>115</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15078,7 +15084,7 @@
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15089,14 +15095,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15109,23 +15115,25 @@
         <v>76</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O115" t="s" s="2">
-        <v>455</v>
+        <v>206</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>76</v>
@@ -15174,7 +15182,7 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15186,13 +15194,13 @@
         <v>76</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>456</v>
+        <v>192</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15203,10 +15211,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15214,10 +15222,10 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>76</v>
@@ -15229,16 +15237,18 @@
         <v>76</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15262,13 +15272,13 @@
         <v>76</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>76</v>
@@ -15286,13 +15296,13 @@
         <v>76</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>76</v>
@@ -15304,10 +15314,10 @@
         <v>76</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>76</v>
@@ -15315,10 +15325,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15326,7 +15336,7 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>87</v>
@@ -15341,13 +15351,13 @@
         <v>76</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>102</v>
+        <v>460</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15374,13 +15384,13 @@
         <v>76</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>76</v>
@@ -15398,10 +15408,10 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>104</v>
+        <v>459</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>87</v>
@@ -15410,16 +15420,16 @@
         <v>76</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>76</v>
@@ -15427,21 +15437,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>484</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>76</v>
@@ -15453,17 +15463,15 @@
         <v>76</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>76</v>
@@ -15500,31 +15508,31 @@
         <v>76</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>76</v>
@@ -15541,14 +15549,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>486</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -15564,23 +15572,21 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>76</v>
       </c>
@@ -15616,17 +15622,19 @@
         <v>76</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC119" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>487</v>
+        <v>114</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -15638,13 +15646,13 @@
         <v>76</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15655,14 +15663,12 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>76</v>
       </c>
@@ -15671,7 +15677,7 @@
         <v>77</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>76</v>
@@ -15683,19 +15689,19 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>532</v>
+        <v>244</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>76</v>
@@ -15720,29 +15726,29 @@
         <v>76</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y120" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z120" t="s" s="2">
-        <v>533</v>
+        <v>76</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -15757,10 +15763,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -15771,13 +15777,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>76</v>
@@ -15799,19 +15805,19 @@
         <v>88</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>76</v>
@@ -15836,11 +15842,11 @@
         <v>76</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>76</v>
@@ -15858,7 +15864,7 @@
         <v>76</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
@@ -15873,10 +15879,10 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15887,12 +15893,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="D122" t="s" s="2">
         <v>76</v>
       </c>
@@ -15913,19 +15921,19 @@
         <v>88</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>291</v>
+        <v>537</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>76</v>
@@ -15950,13 +15958,11 @@
         <v>76</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>76</v>
@@ -15974,13 +15980,13 @@
         <v>76</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>76</v>
@@ -15989,10 +15995,10 @@
         <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16003,10 +16009,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16026,20 +16032,22 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>464</v>
+        <v>293</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O123" t="s" s="2">
-        <v>466</v>
+        <v>296</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>76</v>
@@ -16088,7 +16096,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>463</v>
+        <v>297</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16103,13 +16111,13 @@
         <v>99</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>467</v>
+        <v>299</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>76</v>
@@ -16117,10 +16125,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16143,16 +16151,18 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16200,7 +16210,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -16218,10 +16228,10 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>76</v>
@@ -16229,10 +16239,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16243,7 +16253,7 @@
         <v>77</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>76</v>
@@ -16255,20 +16265,16 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>76</v>
       </c>
@@ -16292,13 +16298,13 @@
         <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16316,13 +16322,13 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>76</v>
@@ -16331,15 +16337,131 @@
         <v>99</v>
       </c>
       <c r="AK125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AL125" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AM125" t="s" s="2">
+      <c r="P126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AN125" t="s" s="2">
+      <c r="AL126" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Practitioner, dérivé de FrPractitioner, pour le service d'agrégation de créneaux de la plateforme SAS - Commun cas d'usage PS Indiv et CPTS</t>
+    <t>Profil de Practitioner, dérivé de FrPractitioner, pour le service d'agrégation de créneaux de la plateforme SAS [Commun cas d'usage PS Indiv et CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -752,6 +752,334 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a OID that describes a set values that are unique.
+the namespace for the practitioner identifier value is fixed in France.
+Pour un PS identifié à partir de sa carte CPS, OID = 1.2.250.1.71.4.2.1
+Pour un employé identifié au sein de sa structure, OID de l'établissement, branche de gestion des employés ou http://hopitalTest.fr/fhir/namingsystem/employes</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.250.1.71.4.2.1</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs</t>
+  </si>
+  <si>
+    <t>idNatPs</t>
+  </si>
+  <si>
+    <t>Identifiant national des PS. Cet identifiant est notamment utilisé dans le cadre du DMP et de la CPS. Cet identifiant est préfixé selon source de provenance de l'identifiant (cf Annexe Transverse – Source des données métier pour les professionnels et les structures du CI-SIS.)</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:idNatPs.type</t>
+  </si>
+  <si>
+    <t>Type d’identifiant national de la personne physique (typeIdNat_PP),
+Les codes ADELI, RPPS et IDNPS proviennent du system  https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203 ; Les codes 1, 3, 4, 5, 6 proviennent du system : https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -760,334 +1088,6 @@
     &lt;code value="IDNPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a OID that describes a set values that are unique.
-the namespace for the practitioner identifier value is fixed in France.
-Pour un PS identifié à partir de sa carte CPS, OID = 1.2.250.1.71.4.2.1
-Pour un employé identifié au sein de sa structure, OID de l'établissement, branche de gestion des employés ou http://hopitalTest.fr/fhir/namingsystem/employes</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.250.1.71.4.2.1</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs</t>
-  </si>
-  <si>
-    <t>idNatPs</t>
-  </si>
-  <si>
-    <t>Identifiant national des PS. Cet identifiant est notamment utilisé dans le cadre du DMP et de la CPS. Cet identifiant est préfixé selon source de provenance de l'identifiant (cf Annexe Transverse – Source des données métier pour les professionnels et les structures du CI-SIS.)</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.use</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:idNatPs.type</t>
-  </si>
-  <si>
-    <t>Type d’identifiant national de la personne physique (typeIdNat_PP),
-Les codes ADELI, RPPS et IDNPS proviennent du system  https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203 ; Les codes 1, 3, 4, 5, 6 proviennent du system : https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -4981,7 +4981,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -5000,25 +5000,25 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5033,7 +5033,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>230</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5159,10 +5159,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5273,10 +5273,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5302,16 +5302,16 @@
         <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5360,7 +5360,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5375,10 +5375,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5501,10 +5501,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5615,10 +5615,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5644,16 +5644,16 @@
         <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5666,43 +5666,43 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5717,10 +5717,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5760,13 +5760,13 @@
         <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5816,7 +5816,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5831,10 +5831,10 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5874,14 +5874,14 @@
         <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5930,7 +5930,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5945,10 +5945,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5988,14 +5988,14 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6044,7 +6044,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6059,10 +6059,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -6073,10 +6073,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6099,19 +6099,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6160,7 +6160,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6175,10 +6175,10 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6218,16 +6218,16 @@
         <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -6276,7 +6276,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6291,10 +6291,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6334,16 +6334,16 @@
         <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6353,46 +6353,46 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="T38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="T38" t="s" s="2">
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6407,13 +6407,13 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6450,13 +6450,13 @@
         <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6470,43 +6470,43 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6521,13 +6521,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6561,13 +6561,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6618,7 +6618,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6633,13 +6633,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6673,16 +6673,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6732,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6747,13 +6747,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6761,20 +6761,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>208</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6792,7 +6792,7 @@
         <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>211</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>219</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>220</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>221</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>231</v>
@@ -7248,7 +7248,7 @@
         <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>234</v>
@@ -7267,7 +7267,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7306,7 +7306,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7321,7 +7321,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>230</v>
@@ -7338,7 +7338,7 @@
         <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7364,16 +7364,16 @@
         <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>348</v>
       </c>
       <c r="N47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7383,46 +7383,46 @@
         <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="T47" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="T47" t="s" s="2">
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7437,13 +7437,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7454,7 +7454,7 @@
         <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7483,10 +7483,10 @@
         <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7500,43 +7500,43 @@
         <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7551,13 +7551,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7568,7 +7568,7 @@
         <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7591,13 +7591,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7648,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7663,13 +7663,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7680,7 +7680,7 @@
         <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7703,16 +7703,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7762,7 +7762,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7777,13 +7777,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -8336,7 +8336,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8351,7 +8351,7 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>230</v>
@@ -8368,7 +8368,7 @@
         <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8394,16 +8394,16 @@
         <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>348</v>
       </c>
       <c r="N56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8416,43 +8416,43 @@
         <v>362</v>
       </c>
       <c r="T56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8467,13 +8467,13 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8484,7 +8484,7 @@
         <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8510,13 +8510,13 @@
         <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8530,43 +8530,43 @@
         <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8581,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8598,7 +8598,7 @@
         <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8621,13 +8621,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8678,7 +8678,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8693,13 +8693,13 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8710,7 +8710,7 @@
         <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8733,16 +8733,16 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8792,7 +8792,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8807,13 +8807,13 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -9366,7 +9366,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9381,7 +9381,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>230</v>
@@ -9398,7 +9398,7 @@
         <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9424,16 +9424,16 @@
         <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>348</v>
       </c>
       <c r="N65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9446,43 +9446,43 @@
         <v>375</v>
       </c>
       <c r="T65" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9497,13 +9497,13 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9514,7 +9514,7 @@
         <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9540,13 +9540,13 @@
         <v>101</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9560,43 +9560,43 @@
         <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9611,13 +9611,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9628,7 +9628,7 @@
         <v>377</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9651,13 +9651,13 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9708,7 +9708,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9723,13 +9723,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -9740,7 +9740,7 @@
         <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9763,16 +9763,16 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9822,7 +9822,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9837,13 +9837,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -9877,7 +9877,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>380</v>
@@ -11363,7 +11363,7 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>466</v>
@@ -11477,7 +11477,7 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>472</v>
@@ -12500,16 +12500,16 @@
         <v>147</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>76</v>
@@ -12556,7 +12556,7 @@
         <v>489</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12571,10 +12571,10 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12616,16 +12616,16 @@
         <v>147</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>76</v>
@@ -12672,7 +12672,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12687,10 +12687,10 @@
         <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -12732,16 +12732,16 @@
         <v>147</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -12788,7 +12788,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -12803,10 +12803,10 @@
         <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12846,16 +12846,16 @@
         <v>101</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -12904,7 +12904,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -12919,10 +12919,10 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12959,7 +12959,7 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>466</v>
@@ -13073,7 +13073,7 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>472</v>
@@ -14096,16 +14096,16 @@
         <v>147</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>76</v>
@@ -14152,7 +14152,7 @@
         <v>489</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14167,10 +14167,10 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14215,13 +14215,13 @@
         <v>512</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -14268,7 +14268,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14283,10 +14283,10 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14331,13 +14331,13 @@
         <v>516</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14384,7 +14384,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14399,10 +14399,10 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14442,16 +14442,16 @@
         <v>101</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>76</v>
@@ -14500,7 +14500,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14515,10 +14515,10 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14555,7 +14555,7 @@
         <v>76</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>466</v>
@@ -14669,7 +14669,7 @@
         <v>76</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>472</v>
@@ -15692,16 +15692,16 @@
         <v>147</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>76</v>
@@ -15748,7 +15748,7 @@
         <v>489</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -15763,10 +15763,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -15811,13 +15811,13 @@
         <v>534</v>
       </c>
       <c r="M121" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>76</v>
@@ -15864,7 +15864,7 @@
         <v>76</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
@@ -15879,10 +15879,10 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15927,13 +15927,13 @@
         <v>537</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>76</v>
@@ -15980,7 +15980,7 @@
         <v>76</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -15995,10 +15995,10 @@
         <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL122" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -16038,16 +16038,16 @@
         <v>101</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>76</v>
@@ -16096,7 +16096,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16111,10 +16111,10 @@
         <v>99</v>
       </c>
       <c r="AK123" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL123" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16151,7 +16151,7 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>466</v>
@@ -16265,7 +16265,7 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>472</v>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-practitioner-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
